--- a/stimuli/NAD_field.xlsx
+++ b/stimuli/NAD_field.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terminalpc\Documents\GitHub\Yeli-NAD\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384265DA-76DC-4267-9D81-4C42540A9CDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="word_files_appfriendly" sheetId="5" r:id="rId4"/>
     <sheet name="lexicons" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="248">
   <si>
     <t>p</t>
   </si>
@@ -806,11 +807,17 @@
   <si>
     <t>role</t>
   </si>
+  <si>
+    <t>exp1</t>
+  </si>
+  <si>
+    <t>exp2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1477,137 +1484,7 @@
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2283,7 +2160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4273,7 +4150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S132"/>
   <sheetViews>
     <sheetView topLeftCell="A88" zoomScale="48" zoomScaleNormal="48" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -5946,46 +5823,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B51:B59">
-    <cfRule type="duplicateValues" dxfId="52" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D59">
-    <cfRule type="duplicateValues" dxfId="51" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:D87">
-    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C99">
-    <cfRule type="duplicateValues" dxfId="49" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="duplicateValues" dxfId="48" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="duplicateValues" dxfId="47" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="duplicateValues" dxfId="46" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95">
-    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:F114">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -5998,7 +5875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -7928,11 +7805,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7940,10 +7817,11 @@
     <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>234</v>
       </c>
@@ -7969,13 +7847,19 @@
         <v>240</v>
       </c>
       <c r="I1" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="L1" s="72" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8000,14 +7884,20 @@
       <c r="H2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8032,14 +7922,20 @@
       <c r="H3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8064,14 +7960,20 @@
       <c r="H4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8096,14 +7998,20 @@
       <c r="H5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8128,14 +8036,20 @@
       <c r="H6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8160,14 +8074,20 @@
       <c r="H7" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8192,14 +8112,20 @@
       <c r="H8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8224,14 +8150,20 @@
       <c r="H9" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8256,14 +8188,20 @@
       <c r="H10" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8288,14 +8226,20 @@
       <c r="H11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8320,14 +8264,20 @@
       <c r="H12" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8352,14 +8302,20 @@
       <c r="H13" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8384,14 +8340,20 @@
       <c r="H14" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8416,14 +8378,20 @@
       <c r="H15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8448,14 +8416,20 @@
       <c r="H16" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8480,14 +8454,20 @@
       <c r="H17" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8512,14 +8492,20 @@
       <c r="H18" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8544,14 +8530,20 @@
       <c r="H19" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8576,14 +8568,20 @@
       <c r="H20" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8608,14 +8606,20 @@
       <c r="H21" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8640,14 +8644,20 @@
       <c r="H22" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8672,14 +8682,20 @@
       <c r="H23" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8704,14 +8720,20 @@
       <c r="H24" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8736,14 +8758,20 @@
       <c r="H25" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8768,14 +8796,20 @@
       <c r="H26" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8800,14 +8834,20 @@
       <c r="H27" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8832,14 +8872,20 @@
       <c r="H28" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8864,14 +8910,20 @@
       <c r="H29" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8896,14 +8948,20 @@
       <c r="H30" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8928,14 +8986,20 @@
       <c r="H31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8960,14 +9024,20 @@
       <c r="H32" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8992,14 +9062,20 @@
       <c r="H33" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9024,14 +9100,20 @@
       <c r="H34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9056,14 +9138,20 @@
       <c r="H35" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9088,14 +9176,20 @@
       <c r="H36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9120,14 +9214,20 @@
       <c r="H37" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9152,14 +9252,20 @@
       <c r="H38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9184,14 +9290,20 @@
       <c r="H39" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9216,14 +9328,20 @@
       <c r="H40" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9248,14 +9366,20 @@
       <c r="H41" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9280,14 +9404,20 @@
       <c r="H42" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9312,14 +9442,20 @@
       <c r="H43" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9344,14 +9480,20 @@
       <c r="H44" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9376,14 +9518,20 @@
       <c r="H45" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9408,14 +9556,20 @@
       <c r="H46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9440,14 +9594,20 @@
       <c r="H47" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9472,14 +9632,20 @@
       <c r="H48" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9504,14 +9670,20 @@
       <c r="H49" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9536,14 +9708,20 @@
       <c r="H50" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9568,14 +9746,20 @@
       <c r="H51" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9600,14 +9784,20 @@
       <c r="H52" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9632,14 +9822,20 @@
       <c r="H53" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9664,14 +9860,20 @@
       <c r="H54" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9696,14 +9898,20 @@
       <c r="H55" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9728,14 +9936,20 @@
       <c r="H56" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9760,14 +9974,20 @@
       <c r="H57" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9792,14 +10012,20 @@
       <c r="H58" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9824,14 +10050,20 @@
       <c r="H59" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9856,14 +10088,20 @@
       <c r="H60" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9888,14 +10126,20 @@
       <c r="H61" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9920,14 +10164,20 @@
       <c r="H62" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9952,14 +10202,20 @@
       <c r="H63" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9984,14 +10240,20 @@
       <c r="H64" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10016,14 +10278,20 @@
       <c r="H65" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10048,14 +10316,20 @@
       <c r="H66" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10080,14 +10354,20 @@
       <c r="H67" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10112,14 +10392,20 @@
       <c r="H68" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="L68" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -10144,14 +10430,20 @@
       <c r="H69" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="L69" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -10176,14 +10468,20 @@
       <c r="H70" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -10208,14 +10506,20 @@
       <c r="H71" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -10240,14 +10544,20 @@
       <c r="H72" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -10272,14 +10582,20 @@
       <c r="H73" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="L73" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -10304,14 +10620,20 @@
       <c r="H74" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10336,14 +10658,20 @@
       <c r="H75" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10368,14 +10696,20 @@
       <c r="H76" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10400,14 +10734,20 @@
       <c r="H77" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10432,14 +10772,20 @@
       <c r="H78" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10464,14 +10810,20 @@
       <c r="H79" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10496,14 +10848,20 @@
       <c r="H80" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10528,14 +10886,20 @@
       <c r="H81" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10560,10 +10924,16 @@
       <c r="H82" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="L82" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10652,10 +11022,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/stimuli/NAD_field.xlsx
+++ b/stimuli/NAD_field.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terminalpc\Documents\GitHub\Yeli-NAD\stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcas\Documents\GitHub\Yeli-NAD\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384265DA-76DC-4267-9D81-4C42540A9CDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,10 @@
     <sheet name="word_files_appfriendly" sheetId="5" r:id="rId4"/>
     <sheet name="lexicons" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">word_files_appfriendly!$A$1:$L$82</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="257">
   <si>
     <t>p</t>
   </si>
@@ -813,11 +815,38 @@
   <si>
     <t>exp2</t>
   </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2160,7 +2189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4150,7 +4179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S132"/>
   <sheetViews>
     <sheetView topLeftCell="A88" zoomScale="48" zoomScaleNormal="48" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -5875,7 +5904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -7805,17 +7834,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13" customWidth="1"/>
     <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
@@ -8902,7 +8931,7 @@
         <v>141</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>203</v>
@@ -8940,7 +8969,7 @@
         <v>142</v>
       </c>
       <c r="F30" s="62" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>203</v>
@@ -8978,7 +9007,7 @@
         <v>143</v>
       </c>
       <c r="F31" s="62" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>203</v>
@@ -9016,7 +9045,7 @@
         <v>144</v>
       </c>
       <c r="F32" s="62" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>203</v>
@@ -9054,7 +9083,7 @@
         <v>145</v>
       </c>
       <c r="F33" s="62" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>203</v>
@@ -9092,7 +9121,7 @@
         <v>146</v>
       </c>
       <c r="F34" s="62" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>203</v>
@@ -9130,7 +9159,7 @@
         <v>147</v>
       </c>
       <c r="F35" s="62" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>203</v>
@@ -9168,7 +9197,7 @@
         <v>148</v>
       </c>
       <c r="F36" s="62" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>203</v>
@@ -9206,7 +9235,7 @@
         <v>149</v>
       </c>
       <c r="F37" s="62" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>203</v>
@@ -9244,7 +9273,7 @@
         <v>153</v>
       </c>
       <c r="F38" s="62" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>76</v>
@@ -9282,7 +9311,7 @@
         <v>154</v>
       </c>
       <c r="F39" s="62" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="G39" s="62" t="s">
         <v>77</v>
@@ -9320,7 +9349,7 @@
         <v>155</v>
       </c>
       <c r="F40" s="62" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="G40" s="62" t="s">
         <v>77</v>
@@ -9358,7 +9387,7 @@
         <v>156</v>
       </c>
       <c r="F41" s="62" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="G41" s="62" t="s">
         <v>78</v>
@@ -9396,7 +9425,7 @@
         <v>157</v>
       </c>
       <c r="F42" s="62" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="G42" s="62" t="s">
         <v>76</v>
@@ -9434,7 +9463,7 @@
         <v>158</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="G43" s="62" t="s">
         <v>78</v>
@@ -9472,7 +9501,7 @@
         <v>159</v>
       </c>
       <c r="F44" s="62" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="G44" s="62" t="s">
         <v>78</v>
@@ -9510,7 +9539,7 @@
         <v>160</v>
       </c>
       <c r="F45" s="62" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="G45" s="62" t="s">
         <v>77</v>
@@ -9548,7 +9577,7 @@
         <v>161</v>
       </c>
       <c r="F46" s="62" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="G46" s="62" t="s">
         <v>76</v>
@@ -10270,7 +10299,7 @@
         <v>141</v>
       </c>
       <c r="F65" s="62" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>203</v>
@@ -10308,7 +10337,7 @@
         <v>142</v>
       </c>
       <c r="F66" s="62" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>203</v>
@@ -10346,7 +10375,7 @@
         <v>143</v>
       </c>
       <c r="F67" s="62" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>203</v>
@@ -10384,7 +10413,7 @@
         <v>144</v>
       </c>
       <c r="F68" s="62" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>203</v>
@@ -10422,7 +10451,7 @@
         <v>145</v>
       </c>
       <c r="F69" s="62" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>203</v>
@@ -10460,7 +10489,7 @@
         <v>146</v>
       </c>
       <c r="F70" s="62" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>203</v>
@@ -10498,7 +10527,7 @@
         <v>147</v>
       </c>
       <c r="F71" s="62" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>203</v>
@@ -10536,7 +10565,7 @@
         <v>148</v>
       </c>
       <c r="F72" s="62" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>203</v>
@@ -10574,7 +10603,7 @@
         <v>149</v>
       </c>
       <c r="F73" s="62" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>203</v>
@@ -10612,7 +10641,7 @@
         <v>225</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>203</v>
@@ -10650,7 +10679,7 @@
         <v>228</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>203</v>
@@ -10688,7 +10717,7 @@
         <v>227</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>203</v>
@@ -10726,7 +10755,7 @@
         <v>229</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>203</v>
@@ -10764,7 +10793,7 @@
         <v>226</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>203</v>
@@ -10802,7 +10831,7 @@
         <v>230</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>203</v>
@@ -10840,7 +10869,7 @@
         <v>231</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>203</v>
@@ -10878,7 +10907,7 @@
         <v>232</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>203</v>
@@ -10916,7 +10945,7 @@
         <v>233</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>203</v>
@@ -10938,6 +10967,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:L82">
+    <sortCondition ref="A1"/>
+  </sortState>
   <conditionalFormatting sqref="E38:E46">
     <cfRule type="duplicateValues" dxfId="25" priority="46"/>
   </conditionalFormatting>
@@ -11022,11 +11054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
